--- a/pred_ohlcv/54_21/2020-01-24 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-481.65607384</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-296.37377384</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-317.36077384</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-249.55947384</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-249.55947384</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-254.55137384</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-272.48857384</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1493.15897384</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1481.84977384</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1406.40877384</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1574.13797384</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1499.23627384</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1311.86977384</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1311.86977384</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1360.90397384</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1360.90397384</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1371.89237384</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1270.89277384</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1270.89277384</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1521.83537384</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1474.99127384</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1455.84037384</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1855.84037384</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1837.57557384</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1817.93337384</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2223.02037384</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2214.71447384</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2311.46527384</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2384.43267384</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4887.474073840001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-481.65607384</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-296.37377384</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-317.36077384</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-249.55947384</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-249.55947384</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-254.55137384</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-272.48857384</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-187.48807384</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1493.15897384</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1481.84977384</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1406.40877384</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1574.13797384</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1311.86977384</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1311.86977384</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1360.90397384</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1270.89277384</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1270.89277384</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1277.80607384</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1521.83537384</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1474.99127384</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1455.84037384</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1855.84037384</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1837.57557384</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1814.93337384</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1817.93337384</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2223.02037384</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2214.71447384</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2311.46527384</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2384.43267384</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
